--- a/Laporan Buku Tamu.xlsx
+++ b/Laporan Buku Tamu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>NO</t>
   </si>
@@ -38,85 +38,22 @@
     <t>KEPENTINGAN</t>
   </si>
   <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>perong</t>
-  </si>
-  <si>
-    <t>kp.loji</t>
-  </si>
-  <si>
-    <t>082123769278</t>
-  </si>
-  <si>
-    <t>Di SMKN 1 Cianjur</t>
-  </si>
-  <si>
-    <t>tugas sekolah</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>paja</t>
-  </si>
-  <si>
-    <t>smp 2</t>
-  </si>
-  <si>
-    <t>027647364</t>
-  </si>
-  <si>
-    <t>turky</t>
-  </si>
-  <si>
-    <t>mabar</t>
-  </si>
-  <si>
-    <t>rivaldy</t>
-  </si>
-  <si>
-    <t>leles</t>
-  </si>
-  <si>
-    <t>0293734</t>
-  </si>
-  <si>
-    <t>mas perong</t>
-  </si>
-  <si>
-    <t>pengen digendong naga perong</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
-  </si>
-  <si>
-    <t>egi</t>
-  </si>
-  <si>
-    <t>kampung pamoyanan</t>
-  </si>
-  <si>
-    <t>085795872764</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>anto</t>
-  </si>
-  <si>
-    <t>nagrak</t>
-  </si>
-  <si>
-    <t>saky</t>
-  </si>
-  <si>
-    <t>ngoding</t>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>azhar</t>
+  </si>
+  <si>
+    <t>kp.bojong</t>
+  </si>
+  <si>
+    <t>08955895489</t>
+  </si>
+  <si>
+    <t>dudun</t>
+  </si>
+  <si>
+    <t>nongkrong</t>
   </si>
 </sst>
 </file>
@@ -456,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,101 +447,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>8347238734</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>